--- a/output/testing_vgg16_806.xlsx
+++ b/output/testing_vgg16_806.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aogarlid/workspace/bioeng223b/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A88D277C-AF9F-364D-8031-31079E8DF6A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA00073D-0A39-6D42-8EC7-579972045E03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testing_vgg16_730" sheetId="1" r:id="rId1"/>
@@ -246,7 +246,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1081,11 +1081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1118,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>1.1382481E-5</v>
+        <v>1.1543879999999999E-2</v>
       </c>
       <c r="D2" t="str">
         <f>IF(C2&gt;0.5,"yes","no")</f>
@@ -1141,11 +1141,11 @@
         <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>0.46803983999999998</v>
+        <v>0.94312286000000001</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ref="D3:D65" si="0">IF(C3&gt;0.5,"yes","no")</f>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E65" si="1">IF(A3=0,"no","yes")</f>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F65" si="2">IF(ISNUMBER(SEARCH(D3,E3)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1164,7 +1164,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1">
-        <v>0.97952211</v>
+        <v>0.71122372</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -1187,11 +1187,11 @@
         <v>9</v>
       </c>
       <c r="C5" s="1">
-        <v>0.52054513000000002</v>
+        <v>0.46125248000000002</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="1"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>0.99999963999999997</v>
+        <v>0.99998224000000002</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -1233,7 +1233,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>9.8028590000000005E-7</v>
+        <v>1.3631278000000001E-4</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
@@ -1256,7 +1256,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0.99999881000000002</v>
+        <v>0.99877006000000002</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -1279,7 +1279,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="1">
-        <v>0.91965032000000002</v>
+        <v>0.84798770999999995</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -1302,11 +1302,11 @@
         <v>14</v>
       </c>
       <c r="C10" s="1">
-        <v>0.16308300000000001</v>
+        <v>0.59106099999999995</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="1"/>
@@ -1314,7 +1314,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1325,11 +1325,11 @@
         <v>15</v>
       </c>
       <c r="C11" s="1">
-        <v>0.27400845000000001</v>
+        <v>0.67948872000000005</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="1"/>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -1371,7 +1371,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="1">
-        <v>7.5005111000000001E-3</v>
+        <v>4.9311724000000001E-2</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -1394,7 +1394,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="1">
-        <v>6.9310994000000004E-7</v>
+        <v>1.5563952000000001E-5</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -1417,11 +1417,11 @@
         <v>19</v>
       </c>
       <c r="C15" s="1">
-        <v>2.6262470999999999E-2</v>
+        <v>0.83049059000000003</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="1"/>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1440,7 +1440,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="1">
-        <v>1.342411E-3</v>
+        <v>6.2629676999999995E-2</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
@@ -1463,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="1">
-        <v>5.6498683999999998E-5</v>
+        <v>6.1768233000000002E-3</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
@@ -1486,7 +1486,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="1">
-        <v>1</v>
+        <v>0.99999475000000004</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -1509,7 +1509,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="1">
-        <v>5.3248410000000003E-3</v>
+        <v>0.34031393999999998</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -1532,7 +1532,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="1">
-        <v>0.27400845000000001</v>
+        <v>0.21607703</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -1555,11 +1555,11 @@
         <v>25</v>
       </c>
       <c r="C21" s="1">
-        <v>0.41603034999999999</v>
+        <v>0.60883087000000002</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="1"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1578,7 +1578,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="1">
-        <v>0.99999987999999995</v>
+        <v>0.99998617000000001</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
@@ -1601,7 +1601,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="1">
-        <v>0.99973243000000001</v>
+        <v>0.99550216999999996</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
@@ -1647,7 +1647,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="1">
-        <v>0.99889189</v>
+        <v>0.98674870000000003</v>
       </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
@@ -1670,7 +1670,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="1">
-        <v>0.99999881000000002</v>
+        <v>0.99880433000000002</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
@@ -1693,7 +1693,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="1">
-        <v>0.99995339000000005</v>
+        <v>0.99867731000000004</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
@@ -1716,7 +1716,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="1">
-        <v>0.99999629999999995</v>
+        <v>0.99999963999999997</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
@@ -1739,7 +1739,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="1">
-        <v>0.91976075999999996</v>
+        <v>0.99309944999999999</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
@@ -1762,11 +1762,11 @@
         <v>34</v>
       </c>
       <c r="C30" s="1">
-        <v>0.13006538000000001</v>
+        <v>0.78931057000000004</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="1"/>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1785,7 +1785,7 @@
         <v>35</v>
       </c>
       <c r="C31" s="1">
-        <v>0.97876894000000003</v>
+        <v>0.60347086000000005</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
@@ -1808,7 +1808,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="1">
-        <v>0.94641584000000001</v>
+        <v>0.94385271999999998</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
@@ -1831,7 +1831,7 @@
         <v>37</v>
       </c>
       <c r="C33" s="1">
-        <v>0.99995875000000001</v>
+        <v>0.99997972999999996</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="0"/>
@@ -1854,7 +1854,7 @@
         <v>38</v>
       </c>
       <c r="C34" s="1">
-        <v>0.99956076999999999</v>
+        <v>0.97097224000000004</v>
       </c>
       <c r="D34" t="str">
         <f t="shared" si="0"/>
@@ -1877,7 +1877,7 @@
         <v>39</v>
       </c>
       <c r="C35" s="1">
-        <v>0.74119436999999999</v>
+        <v>0.94953262999999999</v>
       </c>
       <c r="D35" t="str">
         <f t="shared" si="0"/>
@@ -1946,7 +1946,7 @@
         <v>42</v>
       </c>
       <c r="C38" s="1">
-        <v>1</v>
+        <v>0.99999654000000004</v>
       </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
@@ -1969,7 +1969,7 @@
         <v>43</v>
       </c>
       <c r="C39" s="1">
-        <v>0.99872713999999996</v>
+        <v>0.82575363000000002</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -1992,11 +1992,11 @@
         <v>44</v>
       </c>
       <c r="C40" s="1">
-        <v>0.43378073</v>
+        <v>0.79149175000000005</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="0"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="1"/>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -2038,7 +2038,7 @@
         <v>46</v>
       </c>
       <c r="C42" s="1">
-        <v>0.22057020999999999</v>
+        <v>0.44280148000000003</v>
       </c>
       <c r="D42" t="str">
         <f t="shared" si="0"/>
@@ -2061,7 +2061,7 @@
         <v>47</v>
       </c>
       <c r="C43" s="1">
-        <v>0.98681819000000004</v>
+        <v>0.96526902999999997</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="0"/>
@@ -2084,11 +2084,11 @@
         <v>48</v>
       </c>
       <c r="C44" s="1">
-        <v>0.27400845000000001</v>
+        <v>0.96656734</v>
       </c>
       <c r="D44" t="str">
         <f t="shared" si="0"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="1"/>
@@ -2096,7 +2096,7 @@
       </c>
       <c r="F44">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -2107,7 +2107,7 @@
         <v>49</v>
       </c>
       <c r="C45" s="1">
-        <v>2.1908549000000002E-3</v>
+        <v>7.5742498000000005E-2</v>
       </c>
       <c r="D45" t="str">
         <f t="shared" si="0"/>
@@ -2176,7 +2176,7 @@
         <v>52</v>
       </c>
       <c r="C48" s="1">
-        <v>0.99999976000000002</v>
+        <v>0.99998498000000002</v>
       </c>
       <c r="D48" t="str">
         <f t="shared" si="0"/>
@@ -2199,7 +2199,7 @@
         <v>53</v>
       </c>
       <c r="C49" s="1">
-        <v>0.99820149000000002</v>
+        <v>0.95232486999999999</v>
       </c>
       <c r="D49" t="str">
         <f t="shared" si="0"/>
@@ -2222,11 +2222,11 @@
         <v>54</v>
       </c>
       <c r="C50" s="1">
-        <v>0.63340591999999996</v>
+        <v>0.18468359000000001</v>
       </c>
       <c r="D50" t="str">
         <f t="shared" si="0"/>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="1"/>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -2245,7 +2245,7 @@
         <v>55</v>
       </c>
       <c r="C51" s="1">
-        <v>0.99999559000000005</v>
+        <v>0.99748981000000003</v>
       </c>
       <c r="D51" t="str">
         <f t="shared" si="0"/>
@@ -2268,7 +2268,7 @@
         <v>56</v>
       </c>
       <c r="C52" s="1">
-        <v>0.55132174</v>
+        <v>0.75615524999999995</v>
       </c>
       <c r="D52" t="str">
         <f t="shared" si="0"/>
@@ -2291,7 +2291,7 @@
         <v>57</v>
       </c>
       <c r="C53" s="1">
-        <v>0.99999963999999997</v>
+        <v>0.97293596999999998</v>
       </c>
       <c r="D53" t="str">
         <f t="shared" si="0"/>
@@ -2314,7 +2314,7 @@
         <v>58</v>
       </c>
       <c r="C54" s="1">
-        <v>0.99999987999999995</v>
+        <v>0.97567128999999997</v>
       </c>
       <c r="D54" t="str">
         <f t="shared" si="0"/>
@@ -2337,7 +2337,7 @@
         <v>59</v>
       </c>
       <c r="C55" s="1">
-        <v>0.99911028000000002</v>
+        <v>0.99912482999999996</v>
       </c>
       <c r="D55" t="str">
         <f t="shared" si="0"/>
@@ -2360,7 +2360,7 @@
         <v>60</v>
       </c>
       <c r="C56" s="1">
-        <v>0.59009975000000003</v>
+        <v>0.79598175999999998</v>
       </c>
       <c r="D56" t="str">
         <f t="shared" si="0"/>
@@ -2383,7 +2383,7 @@
         <v>61</v>
       </c>
       <c r="C57" s="1">
-        <v>6.7229704000000001E-3</v>
+        <v>1.8132305000000001E-2</v>
       </c>
       <c r="D57" t="str">
         <f t="shared" si="0"/>
@@ -2406,7 +2406,7 @@
         <v>62</v>
       </c>
       <c r="C58" s="1">
-        <v>0.99738556</v>
+        <v>0.59395819999999999</v>
       </c>
       <c r="D58" t="str">
         <f t="shared" si="0"/>
@@ -2429,7 +2429,7 @@
         <v>63</v>
       </c>
       <c r="C59" s="1">
-        <v>0.96959161999999999</v>
+        <v>0.68765688000000003</v>
       </c>
       <c r="D59" t="str">
         <f t="shared" si="0"/>
@@ -2452,11 +2452,11 @@
         <v>64</v>
       </c>
       <c r="C60" s="1">
-        <v>0.44793107999999998</v>
+        <v>0.95133643999999995</v>
       </c>
       <c r="D60" t="str">
         <f t="shared" si="0"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="1"/>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="F60">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -2475,11 +2475,11 @@
         <v>65</v>
       </c>
       <c r="C61" s="1">
-        <v>0.89700866000000001</v>
+        <v>0.41246622999999999</v>
       </c>
       <c r="D61" t="str">
         <f t="shared" si="0"/>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="F61">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -2498,7 +2498,7 @@
         <v>66</v>
       </c>
       <c r="C62" s="1">
-        <v>1</v>
+        <v>0.99998629000000006</v>
       </c>
       <c r="D62" t="str">
         <f t="shared" si="0"/>
@@ -2521,7 +2521,7 @@
         <v>67</v>
       </c>
       <c r="C63" s="1">
-        <v>1</v>
+        <v>0.99999963999999997</v>
       </c>
       <c r="D63" t="str">
         <f t="shared" si="0"/>
@@ -2544,7 +2544,7 @@
         <v>68</v>
       </c>
       <c r="C64" s="1">
-        <v>1</v>
+        <v>0.99962616000000004</v>
       </c>
       <c r="D64" t="str">
         <f t="shared" si="0"/>
@@ -2567,7 +2567,7 @@
         <v>70</v>
       </c>
       <c r="C65" s="1">
-        <v>0.99999749999999998</v>
+        <v>0.99941599000000003</v>
       </c>
       <c r="D65" t="str">
         <f t="shared" si="0"/>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="F66">
         <f>SUM(F2:F65)/COUNT(F2:F65)</f>
-        <v>0.765625</v>
+        <v>0.734375</v>
       </c>
     </row>
   </sheetData>
